--- a/biology/Zoologie/Granatelle_à_plastron/Granatelle_à_plastron.xlsx
+++ b/biology/Zoologie/Granatelle_à_plastron/Granatelle_à_plastron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Granatellus sallaei
 Le Granatelle à plastron (granatellus sallaei) est une espèce de passereaux appartenant à la famille des Cardinalidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le granatelle à plastron a les parties supérieures bleu ardoise uni. La couronne est margée d'un léger trait noir peu distinct. Les rémiges et les rectrices sont noires bordées ardoise. La tête, le menton et la gorge sont gris ardoise. La poitrine, l'abdomen et le dessous de la queue sont rouge vermillon. Les côtés de la poitrine et la partie inférieure des flancs sont gris ardoise, la partie supérieure étant blanche.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent au Belize, au Guatemala et au Mexique.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le granatelle à plastron vit dans les forêts caduques et de deuxième croissance ainsi que dans les zones broussailleuses.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,7 +651,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses œufs sont blanc légèrement mouchetés de brun-noirâtre.
 </t>
@@ -644,7 +666,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Granatelle_%C3%A0_plastron</t>
+          <t>Granatelle_à_plastron</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -662,7 +684,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 granetallus sallaei sallaei (Bonaparte, 1856) ;
